--- a/Covid_19_Dataset_and_References/References/86.xlsx
+++ b/Covid_19_Dataset_and_References/References/86.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="138">
   <si>
     <t>Doi</t>
   </si>
@@ -459,6 +459,60 @@
   </si>
   <si>
     <t>[ G. M.%Young%null%1,    X.% Peng%null%1,    A.% Rebaza%null%1,    S.% Bermejo%null%1,    D.% Chang%null%1,    L.% Sharma%null%1,    C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,    Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,    Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,    Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,    Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,    Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,   Chan%Ka%coreGivesNoEmail%1,   Ho%Pak-Leung%coreGivesNoEmail%1,   Lam%Kin Bong Hubert%coreGivesNoEmail%1,   Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,    Fu-Wen%Liang%NULL%1,    Hung-Jen%Tang%NULL%1,    Han Siong%Toh%NULL%1,    Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,    Jong-Koo%Lee%NULL%2,    Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,    Nuria%Mora%NULL%1,    Albert%Prats-Uribe%NULL%1,    Francesc%Fina Avilés%NULL%2,    Francesc%Fina Avilés%NULL%0,    Daniel%Prieto-Alhambra%NULL%1,    Manuel%Medina%NULL%2,    Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,    Sheikh Taslim%Ali%NULL%2,    Tiffany W Y%Ng%NULL%2,    Tim K%Tsang%NULL%2,    Julian C M%Li%NULL%2,    Min Whui%Fong%NULL%2,    Qiuyan%Liao%NULL%2,    Mike YW%Kwan%NULL%2,    So Lun%Lee%NULL%2,    Susan S%Chiu%NULL%2,    Joseph T%Wu%NULL%2,    Peng%Wu%pengwu@hku.hk%2,    Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,    Yuki%Furuse%NULL%1,    Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,    Feng%Liu%NULL%0,    Haibo%Wang%NULL%1,    Ruifeng%Yang%NULL%1,    Dongbo%Chen%NULL%1,    Xiaoxiao%Wang%NULL%1,    Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,    Huiying%Rao%raohuiying@pkuph.edu.cn%1,    Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,    Shu-Man%Shih%NULL%1,    Li-Hsin%Chien%NULL%1,    Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,    Heeyoung%Lee%NULL%1,    Kyoung-Ho%Song%NULL%0,    Eu Suk%Kim%NULL%2,    Eu Suk%Kim%NULL%0,    Jeong Su%Park%NULL%1,    Jongtak%Jung%NULL%1,    Soyeon%Ahn%NULL%1,    Eun Kyeong%Jeong%NULL%1,    Hyekyung%Park%NULL%1,    Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,    Hye%Seong%NULL%0,    Hye%Seong%NULL%0,    Jin Gu%Yoon%NULL%0,    Jin Gu%Yoon%NULL%0,    Joon Young%Song%NULL%0,    Joon Young%Song%NULL%0,    Hee Jin%Cheong%NULL%0,    Hee Jin%Cheong%NULL%0,    Woo Joo%Kim%NULL%0,    Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,    Jianyun%Lu%NULL%1,    Yanhui%Liu%NULL%1,    Zhoubin%Zhang%NULL%1,    Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,    Tun-Chieh%Chen%NULL%2,    Tun-Chieh%Chen%NULL%0,    Shin-Huei%Kuo%NULL%1,    Min-Han%Hsieh%NULL%1,    Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,     X.% Peng%null%1,     A.% Rebaza%null%1,     S.% Bermejo%null%1,     D.% Chang%null%1,     L.% Sharma%null%1,     C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
   </si>
 </sst>
 </file>
@@ -783,6 +837,9 @@
       <c r="H1" t="s">
         <v>28</v>
       </c>
+      <c r="I1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -798,7 +855,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -808,6 +865,9 @@
       </c>
       <c r="H2" t="s">
         <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3">
@@ -824,16 +884,19 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +913,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -860,6 +923,9 @@
       </c>
       <c r="H4" t="s">
         <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5">
@@ -876,7 +942,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -886,6 +952,9 @@
       </c>
       <c r="H5" t="s">
         <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6">
@@ -902,7 +971,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -912,6 +981,9 @@
       </c>
       <c r="H6" t="s">
         <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7">
@@ -928,7 +1000,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -938,6 +1010,9 @@
       </c>
       <c r="H7" t="s">
         <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -954,7 +1029,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -964,6 +1039,9 @@
       </c>
       <c r="H8" t="s">
         <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9">
@@ -980,7 +1058,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -990,6 +1068,9 @@
       </c>
       <c r="H9" t="s">
         <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10">
@@ -1006,7 +1087,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1016,6 +1097,9 @@
       </c>
       <c r="H10" t="s">
         <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1116,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -1042,6 +1126,9 @@
       </c>
       <c r="H11" t="s">
         <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -1058,7 +1145,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1068,6 +1155,9 @@
       </c>
       <c r="H12" t="s">
         <v>76</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13">
@@ -1084,7 +1174,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1094,6 +1184,9 @@
       </c>
       <c r="H13" t="s">
         <v>81</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -1110,7 +1203,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1120,6 +1213,9 @@
       </c>
       <c r="H14" t="s">
         <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15">
@@ -1136,16 +1232,19 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
         <v>89</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/86.xlsx
+++ b/Covid_19_Dataset_and_References/References/86.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="180">
   <si>
     <t>Doi</t>
   </si>
@@ -513,6 +513,132 @@
   </si>
   <si>
     <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,     Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,     Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,     Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,     Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,     Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,    Chan%Ka%coreGivesNoEmail%1,    Ho%Pak-Leung%coreGivesNoEmail%1,    Lam%Kin Bong Hubert%coreGivesNoEmail%1,    Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,     Fu-Wen%Liang%NULL%1,     Hung-Jen%Tang%NULL%1,     Han Siong%Toh%NULL%1,     Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,     Jong-Koo%Lee%NULL%2,     Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,     Nuria%Mora%NULL%1,     Albert%Prats-Uribe%NULL%1,     Francesc%Fina Avilés%NULL%2,     Francesc%Fina Avilés%NULL%0,     Daniel%Prieto-Alhambra%NULL%1,     Manuel%Medina%NULL%2,     Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,     Sheikh Taslim%Ali%NULL%2,     Tiffany W Y%Ng%NULL%2,     Tim K%Tsang%NULL%2,     Julian C M%Li%NULL%2,     Min Whui%Fong%NULL%2,     Qiuyan%Liao%NULL%2,     Mike YW%Kwan%NULL%2,     So Lun%Lee%NULL%2,     Susan S%Chiu%NULL%2,     Joseph T%Wu%NULL%2,     Peng%Wu%pengwu@hku.hk%2,     Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,     Yuki%Furuse%NULL%1,     Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,     Feng%Liu%NULL%0,     Haibo%Wang%NULL%1,     Ruifeng%Yang%NULL%1,     Dongbo%Chen%NULL%1,     Xiaoxiao%Wang%NULL%1,     Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,     Huiying%Rao%raohuiying@pkuph.edu.cn%1,     Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,     Shu-Man%Shih%NULL%1,     Li-Hsin%Chien%NULL%1,     Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,     Heeyoung%Lee%NULL%1,     Kyoung-Ho%Song%NULL%1,     Eu Suk%Kim%NULL%2,     Eu Suk%Kim%NULL%0,     Jeong Su%Park%NULL%1,     Jongtak%Jung%NULL%1,     Soyeon%Ahn%NULL%1,     Eun Kyeong%Jeong%NULL%1,     Hyekyung%Park%NULL%1,     Hong Bin%Kim%hbkimmd@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,     Hye%Seong%NULL%2,     Hye%Seong%NULL%0,     Jin Gu%Yoon%NULL%2,     Jin Gu%Yoon%NULL%0,     Joon Young%Song%NULL%3,     Joon Young%Song%NULL%0,     Hee Jin%Cheong%NULL%3,     Hee Jin%Cheong%NULL%0,     Woo Joo%Kim%NULL%3,     Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,     Jianyun%Lu%NULL%1,     Yanhui%Liu%NULL%1,     Zhoubin%Zhang%NULL%1,     Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,     Tun-Chieh%Chen%NULL%2,     Tun-Chieh%Chen%NULL%0,     Shin-Huei%Kuo%NULL%1,     Min-Han%Hsieh%NULL%1,     Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,      X.% Peng%null%1,      A.% Rebaza%null%1,      S.% Bermejo%null%1,      D.% Chang%null%1,      L.% Sharma%null%1,      C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,      Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,      Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,      Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,      Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,      Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,     Chan%Ka%coreGivesNoEmail%1,     Ho%Pak-Leung%coreGivesNoEmail%1,     Lam%Kin Bong Hubert%coreGivesNoEmail%1,     Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,      Fu-Wen%Liang%NULL%1,      Hung-Jen%Tang%NULL%1,      Han Siong%Toh%NULL%1,      Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,      Jong-Koo%Lee%NULL%2,      Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,      Nuria%Mora%NULL%1,      Albert%Prats-Uribe%NULL%1,      Francesc%Fina Avilés%NULL%2,      Francesc%Fina Avilés%NULL%0,      Daniel%Prieto-Alhambra%NULL%1,      Manuel%Medina%NULL%2,      Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,      Sheikh Taslim%Ali%NULL%2,      Tiffany W Y%Ng%NULL%2,      Tim K%Tsang%NULL%2,      Julian C M%Li%NULL%2,      Min Whui%Fong%NULL%2,      Qiuyan%Liao%NULL%2,      Mike YW%Kwan%NULL%2,      So Lun%Lee%NULL%2,      Susan S%Chiu%NULL%2,      Joseph T%Wu%NULL%2,      Peng%Wu%pengwu@hku.hk%2,      Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,      Yuki%Furuse%NULL%1,      Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,      Feng%Liu%NULL%0,      Haibo%Wang%NULL%1,      Ruifeng%Yang%NULL%1,      Dongbo%Chen%NULL%1,      Xiaoxiao%Wang%NULL%1,      Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,      Huiying%Rao%raohuiying@pkuph.edu.cn%1,      Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,      Shu-Man%Shih%NULL%1,      Li-Hsin%Chien%NULL%1,      Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,      Heeyoung%Lee%NULL%1,      Kyoung-Ho%Song%NULL%1,      Eu Suk%Kim%NULL%2,      Eu Suk%Kim%NULL%0,      Jeong Su%Park%NULL%1,      Jongtak%Jung%NULL%1,      Soyeon%Ahn%NULL%1,      Eun Kyeong%Jeong%NULL%1,      Hyekyung%Park%NULL%1,      Hong Bin%Kim%hbkimmd@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,      Hye%Seong%NULL%2,      Hye%Seong%NULL%0,      Jin Gu%Yoon%NULL%2,      Jin Gu%Yoon%NULL%0,      Joon Young%Song%NULL%3,      Joon Young%Song%NULL%0,      Hee Jin%Cheong%NULL%3,      Hee Jin%Cheong%NULL%0,      Woo Joo%Kim%NULL%3,      Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,      Jianyun%Lu%NULL%1,      Yanhui%Liu%NULL%1,      Zhoubin%Zhang%NULL%1,      Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,      Tun-Chieh%Chen%NULL%2,      Tun-Chieh%Chen%NULL%0,      Shin-Huei%Kuo%NULL%1,      Min-Han%Hsieh%NULL%1,      Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,       X.% Peng%null%1,       A.% Rebaza%null%1,       S.% Bermejo%null%1,       D.% Chang%null%1,       L.% Sharma%null%1,       C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,       Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,       Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,       Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,       Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,       Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,      Chan%Ka%coreGivesNoEmail%1,      Ho%Pak-Leung%coreGivesNoEmail%1,      Lam%Kin Bong Hubert%coreGivesNoEmail%1,      Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,       Fu-Wen%Liang%NULL%1,       Hung-Jen%Tang%NULL%1,       Han Siong%Toh%NULL%1,       Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,       Jong-Koo%Lee%NULL%2,       Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,       Nuria%Mora%NULL%1,       Albert%Prats-Uribe%NULL%1,       Francesc%Fina Avilés%NULL%2,       Francesc%Fina Avilés%NULL%0,       Daniel%Prieto-Alhambra%NULL%1,       Manuel%Medina%NULL%2,       Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,       Sheikh Taslim%Ali%NULL%2,       Tiffany W Y%Ng%NULL%2,       Tim K%Tsang%NULL%2,       Julian C M%Li%NULL%2,       Min Whui%Fong%NULL%2,       Qiuyan%Liao%NULL%2,       Mike YW%Kwan%NULL%2,       So Lun%Lee%NULL%2,       Susan S%Chiu%NULL%2,       Joseph T%Wu%NULL%2,       Peng%Wu%pengwu@hku.hk%2,       Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,       Yuki%Furuse%NULL%1,       Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,       Feng%Liu%NULL%0,       Haibo%Wang%NULL%1,       Ruifeng%Yang%NULL%1,       Dongbo%Chen%NULL%1,       Xiaoxiao%Wang%NULL%1,       Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,       Huiying%Rao%raohuiying@pkuph.edu.cn%1,       Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,       Shu-Man%Shih%NULL%1,       Li-Hsin%Chien%NULL%1,       Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,       Heeyoung%Lee%NULL%1,       Kyoung-Ho%Song%NULL%1,       Eu Suk%Kim%NULL%2,       Eu Suk%Kim%NULL%0,       Jeong Su%Park%NULL%1,       Jongtak%Jung%NULL%1,       Soyeon%Ahn%NULL%1,       Eun Kyeong%Jeong%NULL%1,       Hyekyung%Park%NULL%1,       Hong Bin%Kim%hbkimmd@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,       Hye%Seong%NULL%2,       Hye%Seong%NULL%0,       Jin Gu%Yoon%NULL%2,       Jin Gu%Yoon%NULL%0,       Joon Young%Song%NULL%3,       Joon Young%Song%NULL%0,       Hee Jin%Cheong%NULL%3,       Hee Jin%Cheong%NULL%0,       Woo Joo%Kim%NULL%3,       Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,       Jianyun%Lu%NULL%1,       Yanhui%Liu%NULL%1,       Zhoubin%Zhang%NULL%1,       Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,       Tun-Chieh%Chen%NULL%2,       Tun-Chieh%Chen%NULL%0,       Shin-Huei%Kuo%NULL%1,       Min-Han%Hsieh%NULL%1,       Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,        X.% Peng%null%1,        A.% Rebaza%null%1,        S.% Bermejo%null%1,        D.% Chang%null%1,        L.% Sharma%null%1,        C. % Dela Cruz%null%1]</t>
   </si>
 </sst>
 </file>
@@ -855,7 +981,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -884,13 +1010,13 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
         <v>35</v>
@@ -913,7 +1039,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -942,7 +1068,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -971,7 +1097,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1000,7 +1126,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1029,7 +1155,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1058,7 +1184,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1087,7 +1213,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1116,7 +1242,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -1145,7 +1271,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1174,7 +1300,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1203,7 +1329,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1232,7 +1358,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/86.xlsx
+++ b/Covid_19_Dataset_and_References/References/86.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="208">
   <si>
     <t>Doi</t>
   </si>
@@ -639,6 +639,90 @@
   </si>
   <si>
     <t>[ G. M.%Young%null%1,        X.% Peng%null%1,        A.% Rebaza%null%1,        S.% Bermejo%null%1,        D.% Chang%null%1,        L.% Sharma%null%1,        C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,        Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,        Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,        Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,        Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,        Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,       Chan%Ka%coreGivesNoEmail%1,       Ho%Pak-Leung%coreGivesNoEmail%1,       Lam%Kin Bong Hubert%coreGivesNoEmail%1,       Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,        Fu-Wen%Liang%NULL%1,        Hung-Jen%Tang%NULL%1,        Han Siong%Toh%NULL%1,        Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,        Jong-Koo%Lee%NULL%2,        Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,        Nuria%Mora%NULL%1,        Albert%Prats-Uribe%NULL%1,        Francesc%Fina Avilés%NULL%2,        Francesc%Fina Avilés%NULL%0,        Daniel%Prieto-Alhambra%NULL%1,        Manuel%Medina%NULL%2,        Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,        Sheikh Taslim%Ali%NULL%2,        Tiffany W Y%Ng%NULL%2,        Tim K%Tsang%NULL%2,        Julian C M%Li%NULL%2,        Min Whui%Fong%NULL%2,        Qiuyan%Liao%NULL%2,        Mike YW%Kwan%NULL%2,        So Lun%Lee%NULL%2,        Susan S%Chiu%NULL%2,        Joseph T%Wu%NULL%2,        Peng%Wu%pengwu@hku.hk%2,        Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,        Yuki%Furuse%NULL%1,        Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,        Feng%Liu%NULL%0,        Haibo%Wang%NULL%1,        Ruifeng%Yang%NULL%1,        Dongbo%Chen%NULL%1,        Xiaoxiao%Wang%NULL%1,        Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,        Huiying%Rao%raohuiying@pkuph.edu.cn%1,        Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,        Shu-Man%Shih%NULL%1,        Li-Hsin%Chien%NULL%1,        Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,        Heeyoung%Lee%NULL%1,        Kyoung-Ho%Song%NULL%0,        Eu Suk%Kim%NULL%2,        Eu Suk%Kim%NULL%0,        Jeong Su%Park%NULL%1,        Jongtak%Jung%NULL%1,        Soyeon%Ahn%NULL%1,        Eun Kyeong%Jeong%NULL%1,        Hyekyung%Park%NULL%1,        Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,        Hye%Seong%NULL%0,        Hye%Seong%NULL%0,        Jin Gu%Yoon%NULL%0,        Jin Gu%Yoon%NULL%0,        Joon Young%Song%NULL%0,        Joon Young%Song%NULL%0,        Hee Jin%Cheong%NULL%0,        Hee Jin%Cheong%NULL%0,        Woo Joo%Kim%NULL%0,        Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%4,        Jianyun%Lu%NULL%1,        Yanhui%Liu%NULL%1,        Zhoubin%Zhang%NULL%1,        Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,        Tun-Chieh%Chen%NULL%2,        Tun-Chieh%Chen%NULL%0,        Shin-Huei%Kuo%NULL%1,        Min-Han%Hsieh%NULL%1,        Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,         X.% Peng%null%1,         A.% Rebaza%null%1,         S.% Bermejo%null%1,         D.% Chang%null%1,         L.% Sharma%null%1,         C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,         Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,         Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,         Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,         Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,         Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,        Chan%Ka%coreGivesNoEmail%1,        Ho%Pak-Leung%coreGivesNoEmail%1,        Lam%Kin Bong Hubert%coreGivesNoEmail%1,        Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,         Fu-Wen%Liang%NULL%1,         Hung-Jen%Tang%NULL%1,         Han Siong%Toh%NULL%1,         Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,         Jong-Koo%Lee%NULL%2,         Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,         Nuria%Mora%NULL%1,         Albert%Prats-Uribe%NULL%1,         Francesc%Fina Avilés%NULL%2,         Francesc%Fina Avilés%NULL%0,         Daniel%Prieto-Alhambra%NULL%1,         Manuel%Medina%NULL%2,         Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,         Sheikh Taslim%Ali%NULL%2,         Tiffany W Y%Ng%NULL%2,         Tim K%Tsang%NULL%2,         Julian C M%Li%NULL%2,         Min Whui%Fong%NULL%2,         Qiuyan%Liao%NULL%2,         Mike YW%Kwan%NULL%2,         So Lun%Lee%NULL%2,         Susan S%Chiu%NULL%2,         Joseph T%Wu%NULL%2,         Peng%Wu%pengwu@hku.hk%2,         Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,         Yuki%Furuse%NULL%1,         Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,         Feng%Liu%NULL%0,         Haibo%Wang%NULL%1,         Ruifeng%Yang%NULL%1,         Dongbo%Chen%NULL%1,         Xiaoxiao%Wang%NULL%1,         Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,         Huiying%Rao%raohuiying@pkuph.edu.cn%1,         Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,         Shu-Man%Shih%NULL%1,         Li-Hsin%Chien%NULL%1,         Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,         Heeyoung%Lee%NULL%1,         Kyoung-Ho%Song%NULL%0,         Eu Suk%Kim%NULL%2,         Eu Suk%Kim%NULL%0,         Jeong Su%Park%NULL%1,         Jongtak%Jung%NULL%1,         Soyeon%Ahn%NULL%1,         Eun Kyeong%Jeong%NULL%1,         Hyekyung%Park%NULL%1,         Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,         Hye%Seong%NULL%0,         Hye%Seong%NULL%0,         Jin Gu%Yoon%NULL%0,         Jin Gu%Yoon%NULL%0,         Joon Young%Song%NULL%0,         Joon Young%Song%NULL%0,         Hee Jin%Cheong%NULL%0,         Hee Jin%Cheong%NULL%0,         Woo Joo%Kim%NULL%0,         Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,         Jianyun%Lu%NULL%1,         Yanhui%Liu%NULL%1,         Zhoubin%Zhang%NULL%1,         Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,         Tun-Chieh%Chen%NULL%2,         Tun-Chieh%Chen%NULL%0,         Shin-Huei%Kuo%NULL%1,         Min-Han%Hsieh%NULL%1,         Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,          X.% Peng%null%1,          A.% Rebaza%null%1,          S.% Bermejo%null%1,          D.% Chang%null%1,          L.% Sharma%null%1,          C. % Dela Cruz%null%1]</t>
   </si>
 </sst>
 </file>
@@ -981,7 +1065,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1010,7 +1094,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1039,7 +1123,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1068,7 +1152,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1097,7 +1181,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1126,7 +1210,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1155,7 +1239,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1184,7 +1268,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1213,7 +1297,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1242,7 +1326,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -1271,7 +1355,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1300,7 +1384,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1329,7 +1413,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1358,7 +1442,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/86.xlsx
+++ b/Covid_19_Dataset_and_References/References/86.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="236">
   <si>
     <t>Doi</t>
   </si>
@@ -723,6 +723,90 @@
   </si>
   <si>
     <t>[ G. M.%Young%null%1,          X.% Peng%null%1,          A.% Rebaza%null%1,          S.% Bermejo%null%1,          D.% Chang%null%1,          L.% Sharma%null%1,          C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,          Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,          Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,          Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,          Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,          Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,         Chan%Ka%coreGivesNoEmail%1,         Ho%Pak-Leung%coreGivesNoEmail%1,         Lam%Kin Bong Hubert%coreGivesNoEmail%1,         Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,          Fu-Wen%Liang%NULL%1,          Hung-Jen%Tang%NULL%1,          Han Siong%Toh%NULL%1,          Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,          Jong-Koo%Lee%NULL%2,          Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,          Nuria%Mora%NULL%1,          Albert%Prats-Uribe%NULL%1,          Francesc%Fina Avilés%NULL%2,          Francesc%Fina Avilés%NULL%0,          Daniel%Prieto-Alhambra%NULL%1,          Manuel%Medina%NULL%2,          Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,          Sheikh Taslim%Ali%NULL%2,          Tiffany W Y%Ng%NULL%2,          Tim K%Tsang%NULL%2,          Julian C M%Li%NULL%2,          Min Whui%Fong%NULL%2,          Qiuyan%Liao%NULL%2,          Mike YW%Kwan%NULL%2,          So Lun%Lee%NULL%2,          Susan S%Chiu%NULL%2,          Joseph T%Wu%NULL%2,          Peng%Wu%pengwu@hku.hk%2,          Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,          Yuki%Furuse%NULL%1,          Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,          Feng%Liu%NULL%0,          Haibo%Wang%NULL%1,          Ruifeng%Yang%NULL%1,          Dongbo%Chen%NULL%1,          Xiaoxiao%Wang%NULL%1,          Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,          Huiying%Rao%raohuiying@pkuph.edu.cn%1,          Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,          Shu-Man%Shih%NULL%1,          Li-Hsin%Chien%NULL%1,          Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,          Heeyoung%Lee%NULL%1,          Kyoung-Ho%Song%NULL%0,          Eu Suk%Kim%NULL%2,          Eu Suk%Kim%NULL%0,          Jeong Su%Park%NULL%1,          Jongtak%Jung%NULL%1,          Soyeon%Ahn%NULL%1,          Eun Kyeong%Jeong%NULL%1,          Hyekyung%Park%NULL%1,          Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,          Hye%Seong%NULL%0,          Hye%Seong%NULL%0,          Jin Gu%Yoon%NULL%0,          Jin Gu%Yoon%NULL%0,          Joon Young%Song%NULL%0,          Joon Young%Song%NULL%0,          Hee Jin%Cheong%NULL%0,          Hee Jin%Cheong%NULL%0,          Woo Joo%Kim%NULL%0,          Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,          Jianyun%Lu%NULL%1,          Yanhui%Liu%NULL%1,          Zhoubin%Zhang%NULL%1,          Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,          Tun-Chieh%Chen%NULL%2,          Tun-Chieh%Chen%NULL%0,          Shin-Huei%Kuo%NULL%1,          Min-Han%Hsieh%NULL%1,          Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,           X.% Peng%null%1,           A.% Rebaza%null%1,           S.% Bermejo%null%1,           D.% Chang%null%1,           L.% Sharma%null%1,           C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,           Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,           Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,           Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,           Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,           Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,          Chan%Ka%coreGivesNoEmail%1,          Ho%Pak-Leung%coreGivesNoEmail%1,          Lam%Kin Bong Hubert%coreGivesNoEmail%1,          Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,           Fu-Wen%Liang%NULL%1,           Hung-Jen%Tang%NULL%1,           Han Siong%Toh%NULL%1,           Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,           Jong-Koo%Lee%NULL%2,           Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,           Nuria%Mora%NULL%1,           Albert%Prats-Uribe%NULL%1,           Francesc%Fina Avilés%NULL%2,           Francesc%Fina Avilés%NULL%0,           Daniel%Prieto-Alhambra%NULL%1,           Manuel%Medina%NULL%2,           Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,           Sheikh Taslim%Ali%NULL%2,           Tiffany W Y%Ng%NULL%2,           Tim K%Tsang%NULL%2,           Julian C M%Li%NULL%2,           Min Whui%Fong%NULL%2,           Qiuyan%Liao%NULL%2,           Mike YW%Kwan%NULL%2,           So Lun%Lee%NULL%2,           Susan S%Chiu%NULL%2,           Joseph T%Wu%NULL%2,           Peng%Wu%pengwu@hku.hk%2,           Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,           Yuki%Furuse%NULL%1,           Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,           Feng%Liu%NULL%0,           Haibo%Wang%NULL%1,           Ruifeng%Yang%NULL%1,           Dongbo%Chen%NULL%1,           Xiaoxiao%Wang%NULL%1,           Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,           Huiying%Rao%raohuiying@pkuph.edu.cn%1,           Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,           Shu-Man%Shih%NULL%1,           Li-Hsin%Chien%NULL%1,           Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,           Heeyoung%Lee%NULL%1,           Kyoung-Ho%Song%NULL%0,           Eu Suk%Kim%NULL%2,           Eu Suk%Kim%NULL%0,           Jeong Su%Park%NULL%1,           Jongtak%Jung%NULL%1,           Soyeon%Ahn%NULL%1,           Eun Kyeong%Jeong%NULL%1,           Hyekyung%Park%NULL%1,           Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,           Hye%Seong%NULL%0,           Hye%Seong%NULL%0,           Jin Gu%Yoon%NULL%0,           Jin Gu%Yoon%NULL%0,           Joon Young%Song%NULL%0,           Joon Young%Song%NULL%0,           Hee Jin%Cheong%NULL%0,           Hee Jin%Cheong%NULL%0,           Woo Joo%Kim%NULL%0,           Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,           Jianyun%Lu%NULL%1,           Yanhui%Liu%NULL%1,           Zhoubin%Zhang%NULL%1,           Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,           Tun-Chieh%Chen%NULL%2,           Tun-Chieh%Chen%NULL%0,           Shin-Huei%Kuo%NULL%1,           Min-Han%Hsieh%NULL%1,           Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,            X.% Peng%null%1,            A.% Rebaza%null%1,            S.% Bermejo%null%1,            D.% Chang%null%1,            L.% Sharma%null%1,            C. % Dela Cruz%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1149,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1094,7 +1178,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1123,7 +1207,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1152,7 +1236,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1181,7 +1265,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1210,7 +1294,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1239,7 +1323,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1268,7 +1352,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1297,7 +1381,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1326,7 +1410,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -1355,7 +1439,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1384,7 +1468,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1413,7 +1497,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1442,7 +1526,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/86.xlsx
+++ b/Covid_19_Dataset_and_References/References/86.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="264">
   <si>
     <t>Doi</t>
   </si>
@@ -807,6 +807,90 @@
   </si>
   <si>
     <t>[ G. M.%Young%null%1,            X.% Peng%null%1,            A.% Rebaza%null%1,            S.% Bermejo%null%1,            D.% Chang%null%1,            L.% Sharma%null%1,            C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,            Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,            Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,            Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,            Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,            Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,           Chan%Ka%coreGivesNoEmail%1,           Ho%Pak-Leung%coreGivesNoEmail%1,           Lam%Kin Bong Hubert%coreGivesNoEmail%1,           Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,            Fu-Wen%Liang%NULL%1,            Hung-Jen%Tang%NULL%1,            Han Siong%Toh%NULL%1,            Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,            Jong-Koo%Lee%NULL%2,            Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,            Nuria%Mora%NULL%1,            Albert%Prats-Uribe%NULL%1,            Francesc%Fina Avilés%NULL%2,            Francesc%Fina Avilés%NULL%0,            Daniel%Prieto-Alhambra%NULL%1,            Manuel%Medina%NULL%2,            Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,            Sheikh Taslim%Ali%NULL%2,            Tiffany W Y%Ng%NULL%2,            Tim K%Tsang%NULL%2,            Julian C M%Li%NULL%2,            Min Whui%Fong%NULL%2,            Qiuyan%Liao%NULL%2,            Mike YW%Kwan%NULL%2,            So Lun%Lee%NULL%2,            Susan S%Chiu%NULL%2,            Joseph T%Wu%NULL%2,            Peng%Wu%pengwu@hku.hk%2,            Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,            Yuki%Furuse%NULL%1,            Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,            Feng%Liu%NULL%0,            Haibo%Wang%NULL%1,            Ruifeng%Yang%NULL%1,            Dongbo%Chen%NULL%1,            Xiaoxiao%Wang%NULL%1,            Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,            Huiying%Rao%raohuiying@pkuph.edu.cn%1,            Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,            Shu-Man%Shih%NULL%1,            Li-Hsin%Chien%NULL%1,            Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,            Heeyoung%Lee%NULL%1,            Kyoung-Ho%Song%NULL%0,            Eu Suk%Kim%NULL%2,            Eu Suk%Kim%NULL%0,            Jeong Su%Park%NULL%1,            Jongtak%Jung%NULL%1,            Soyeon%Ahn%NULL%1,            Eun Kyeong%Jeong%NULL%1,            Hyekyung%Park%NULL%1,            Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,            Hye%Seong%NULL%0,            Hye%Seong%NULL%0,            Jin Gu%Yoon%NULL%0,            Jin Gu%Yoon%NULL%0,            Joon Young%Song%NULL%0,            Joon Young%Song%NULL%0,            Hee Jin%Cheong%NULL%0,            Hee Jin%Cheong%NULL%0,            Woo Joo%Kim%NULL%0,            Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,            Jianyun%Lu%NULL%1,            Yanhui%Liu%NULL%1,            Zhoubin%Zhang%NULL%1,            Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,            Tun-Chieh%Chen%NULL%2,            Tun-Chieh%Chen%NULL%0,            Shin-Huei%Kuo%NULL%1,            Min-Han%Hsieh%NULL%1,            Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,             X.% Peng%null%1,             A.% Rebaza%null%1,             S.% Bermejo%null%1,             D.% Chang%null%1,             L.% Sharma%null%1,             C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,             Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,             Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,             Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,             Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,             Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,            Chan%Ka%coreGivesNoEmail%1,            Ho%Pak-Leung%coreGivesNoEmail%1,            Lam%Kin Bong Hubert%coreGivesNoEmail%1,            Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,             Fu-Wen%Liang%NULL%1,             Hung-Jen%Tang%NULL%1,             Han Siong%Toh%NULL%1,             Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,             Jong-Koo%Lee%NULL%2,             Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,             Nuria%Mora%NULL%1,             Albert%Prats-Uribe%NULL%1,             Francesc%Fina Avilés%NULL%2,             Francesc%Fina Avilés%NULL%0,             Daniel%Prieto-Alhambra%NULL%1,             Manuel%Medina%NULL%2,             Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,             Sheikh Taslim%Ali%NULL%2,             Tiffany W Y%Ng%NULL%2,             Tim K%Tsang%NULL%2,             Julian C M%Li%NULL%2,             Min Whui%Fong%NULL%2,             Qiuyan%Liao%NULL%2,             Mike YW%Kwan%NULL%2,             So Lun%Lee%NULL%2,             Susan S%Chiu%NULL%2,             Joseph T%Wu%NULL%2,             Peng%Wu%pengwu@hku.hk%2,             Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,             Yuki%Furuse%NULL%1,             Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,             Feng%Liu%NULL%0,             Haibo%Wang%NULL%1,             Ruifeng%Yang%NULL%1,             Dongbo%Chen%NULL%1,             Xiaoxiao%Wang%NULL%1,             Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,             Huiying%Rao%raohuiying@pkuph.edu.cn%1,             Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,             Shu-Man%Shih%NULL%1,             Li-Hsin%Chien%NULL%1,             Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,             Heeyoung%Lee%NULL%1,             Kyoung-Ho%Song%NULL%0,             Eu Suk%Kim%NULL%2,             Eu Suk%Kim%NULL%0,             Jeong Su%Park%NULL%1,             Jongtak%Jung%NULL%1,             Soyeon%Ahn%NULL%1,             Eun Kyeong%Jeong%NULL%1,             Hyekyung%Park%NULL%1,             Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,             Hye%Seong%NULL%0,             Hye%Seong%NULL%0,             Jin Gu%Yoon%NULL%0,             Jin Gu%Yoon%NULL%0,             Joon Young%Song%NULL%0,             Joon Young%Song%NULL%0,             Hee Jin%Cheong%NULL%0,             Hee Jin%Cheong%NULL%0,             Woo Joo%Kim%NULL%0,             Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,             Jianyun%Lu%NULL%1,             Yanhui%Liu%NULL%1,             Zhoubin%Zhang%NULL%1,             Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,             Tun-Chieh%Chen%NULL%2,             Tun-Chieh%Chen%NULL%0,             Shin-Huei%Kuo%NULL%1,             Min-Han%Hsieh%NULL%1,             Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,              X.% Peng%null%1,              A.% Rebaza%null%1,              S.% Bermejo%null%1,              D.% Chang%null%1,              L.% Sharma%null%1,              C. % Dela Cruz%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1233,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1178,7 +1262,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1207,7 +1291,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1236,7 +1320,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1265,7 +1349,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1294,7 +1378,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1323,7 +1407,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1352,7 +1436,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1381,7 +1465,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1410,7 +1494,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -1439,7 +1523,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1468,7 +1552,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1497,7 +1581,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1526,7 +1610,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/86.xlsx
+++ b/Covid_19_Dataset_and_References/References/86.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="279">
   <si>
     <t>Doi</t>
   </si>
@@ -891,6 +891,51 @@
   </si>
   <si>
     <t>[ G. M.%Young%null%1,              X.% Peng%null%1,              A.% Rebaza%null%1,              S.% Bermejo%null%1,              D.% Chang%null%1,              L.% Sharma%null%1,              C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,              Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,              Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,              Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,              Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,              Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,             Chan%Ka%coreGivesNoEmail%1,             Ho%Pak-Leung%coreGivesNoEmail%1,             Lam%Kin Bong Hubert%coreGivesNoEmail%1,             Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,              Fu-Wen%Liang%NULL%1,              Hung-Jen%Tang%NULL%1,              Han Siong%Toh%NULL%1,              Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,              Jong-Koo%Lee%NULL%2,              Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,              Nuria%Mora%NULL%1,              Albert%Prats-Uribe%NULL%1,              Francesc%Fina Avilés%NULL%2,              Francesc%Fina Avilés%NULL%0,              Daniel%Prieto-Alhambra%NULL%1,              Manuel%Medina%NULL%2,              Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,              Sheikh Taslim%Ali%NULL%2,              Tiffany W Y%Ng%NULL%2,              Tim K%Tsang%NULL%2,              Julian C M%Li%NULL%2,              Min Whui%Fong%NULL%2,              Qiuyan%Liao%NULL%2,              Mike YW%Kwan%NULL%2,              So Lun%Lee%NULL%2,              Susan S%Chiu%NULL%2,              Joseph T%Wu%NULL%2,              Peng%Wu%pengwu@hku.hk%2,              Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,              Yuki%Furuse%NULL%1,              Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,              Feng%Liu%NULL%0,              Haibo%Wang%NULL%1,              Ruifeng%Yang%NULL%1,              Dongbo%Chen%NULL%1,              Xiaoxiao%Wang%NULL%1,              Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,              Huiying%Rao%raohuiying@pkuph.edu.cn%1,              Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,              Shu-Man%Shih%NULL%1,              Li-Hsin%Chien%NULL%1,              Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,              Heeyoung%Lee%NULL%1,              Kyoung-Ho%Song%NULL%0,              Eu Suk%Kim%NULL%2,              Eu Suk%Kim%NULL%0,              Jeong Su%Park%NULL%1,              Jongtak%Jung%NULL%1,              Soyeon%Ahn%NULL%1,              Eun Kyeong%Jeong%NULL%1,              Hyekyung%Park%NULL%1,              Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,              Hye%Seong%NULL%0,              Hye%Seong%NULL%0,              Jin Gu%Yoon%NULL%0,              Jin Gu%Yoon%NULL%0,              Joon Young%Song%NULL%0,              Joon Young%Song%NULL%0,              Hee Jin%Cheong%NULL%0,              Hee Jin%Cheong%NULL%0,              Woo Joo%Kim%NULL%0,              Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,              Jianyun%Lu%NULL%1,              Yanhui%Liu%NULL%1,              Zhoubin%Zhang%NULL%1,              Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,              Tun-Chieh%Chen%NULL%2,              Tun-Chieh%Chen%NULL%0,              Shin-Huei%Kuo%NULL%1,              Min-Han%Hsieh%NULL%1,              Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,               X.% Peng%null%1,               A.% Rebaza%null%1,               S.% Bermejo%null%1,               D.% Chang%null%1,               L.% Sharma%null%1,               C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1278,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1262,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1291,7 +1336,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1320,7 +1365,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1349,7 +1394,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1378,7 +1423,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1407,7 +1452,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1436,7 +1481,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1465,7 +1510,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1494,7 +1539,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -1523,7 +1568,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1552,7 +1597,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1581,7 +1626,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1610,13 +1655,13 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>278</v>
       </c>
       <c r="H15" t="s">
         <v>89</v>

--- a/Covid_19_Dataset_and_References/References/86.xlsx
+++ b/Covid_19_Dataset_and_References/References/86.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="293">
   <si>
     <t>Doi</t>
   </si>
@@ -936,6 +936,48 @@
   </si>
   <si>
     <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,               Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,               Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,               Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,               Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,               Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,              Chan%Ka%coreGivesNoEmail%1,              Ho%Pak-Leung%coreGivesNoEmail%1,              Lam%Kin Bong Hubert%coreGivesNoEmail%1,              Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,               Fu-Wen%Liang%NULL%1,               Hung-Jen%Tang%NULL%1,               Han Siong%Toh%NULL%1,               Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,               Jong-Koo%Lee%NULL%2,               Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,               Nuria%Mora%NULL%1,               Albert%Prats-Uribe%NULL%1,               Francesc%Fina Avilés%NULL%2,               Francesc%Fina Avilés%NULL%0,               Daniel%Prieto-Alhambra%NULL%1,               Manuel%Medina%NULL%2,               Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,               Sheikh Taslim%Ali%NULL%2,               Tiffany W Y%Ng%NULL%2,               Tim K%Tsang%NULL%2,               Julian C M%Li%NULL%2,               Min Whui%Fong%NULL%2,               Qiuyan%Liao%NULL%2,               Mike YW%Kwan%NULL%2,               So Lun%Lee%NULL%2,               Susan S%Chiu%NULL%2,               Joseph T%Wu%NULL%2,               Peng%Wu%pengwu@hku.hk%2,               Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,               Yuki%Furuse%NULL%1,               Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,               Feng%Liu%NULL%0,               Haibo%Wang%NULL%1,               Ruifeng%Yang%NULL%1,               Dongbo%Chen%NULL%1,               Xiaoxiao%Wang%NULL%1,               Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,               Huiying%Rao%raohuiying@pkuph.edu.cn%1,               Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,               Shu-Man%Shih%NULL%1,               Li-Hsin%Chien%NULL%1,               Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,               Heeyoung%Lee%NULL%1,               Kyoung-Ho%Song%NULL%0,               Eu Suk%Kim%NULL%2,               Eu Suk%Kim%NULL%0,               Jeong Su%Park%NULL%1,               Jongtak%Jung%NULL%1,               Soyeon%Ahn%NULL%1,               Eun Kyeong%Jeong%NULL%1,               Hyekyung%Park%NULL%1,               Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,               Hye%Seong%NULL%0,               Hye%Seong%NULL%0,               Jin Gu%Yoon%NULL%0,               Jin Gu%Yoon%NULL%0,               Joon Young%Song%NULL%0,               Joon Young%Song%NULL%0,               Hee Jin%Cheong%NULL%0,               Hee Jin%Cheong%NULL%0,               Woo Joo%Kim%NULL%0,               Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,               Jianyun%Lu%NULL%1,               Yanhui%Liu%NULL%1,               Zhoubin%Zhang%NULL%1,               Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,               Tun-Chieh%Chen%NULL%2,               Tun-Chieh%Chen%NULL%0,               Shin-Huei%Kuo%NULL%1,               Min-Han%Hsieh%NULL%1,               Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,                X.% Peng%null%1,                A.% Rebaza%null%1,                S.% Bermejo%null%1,                D.% Chang%null%1,                L.% Sharma%null%1,                C. % Dela Cruz%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1320,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1307,7 +1349,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1336,7 +1378,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1365,7 +1407,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1394,7 +1436,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1423,7 +1465,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1452,7 +1494,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1481,7 +1523,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1510,7 +1552,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1539,7 +1581,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -1568,7 +1610,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1597,7 +1639,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1626,7 +1668,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1655,7 +1697,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>

--- a/Covid_19_Dataset_and_References/References/86.xlsx
+++ b/Covid_19_Dataset_and_References/References/86.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="321">
   <si>
     <t>Doi</t>
   </si>
@@ -978,6 +978,90 @@
   </si>
   <si>
     <t>[ G. M.%Young%null%1,                X.% Peng%null%1,                A.% Rebaza%null%1,                S.% Bermejo%null%1,                D.% Chang%null%1,                L.% Sharma%null%1,                C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,                Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,                Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,                Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,                Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,                Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,               Chan%Ka%coreGivesNoEmail%1,               Ho%Pak-Leung%coreGivesNoEmail%1,               Lam%Kin Bong Hubert%coreGivesNoEmail%1,               Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,                Fu-Wen%Liang%NULL%1,                Hung-Jen%Tang%NULL%1,                Han Siong%Toh%NULL%1,                Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,                Jong-Koo%Lee%NULL%2,                Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,                Nuria%Mora%NULL%1,                Albert%Prats-Uribe%NULL%1,                Francesc%Fina Avilés%NULL%2,                Francesc%Fina Avilés%NULL%0,                Daniel%Prieto-Alhambra%NULL%1,                Manuel%Medina%NULL%2,                Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,                Sheikh Taslim%Ali%NULL%2,                Tiffany W Y%Ng%NULL%2,                Tim K%Tsang%NULL%2,                Julian C M%Li%NULL%2,                Min Whui%Fong%NULL%2,                Qiuyan%Liao%NULL%2,                Mike YW%Kwan%NULL%2,                So Lun%Lee%NULL%2,                Susan S%Chiu%NULL%2,                Joseph T%Wu%NULL%2,                Peng%Wu%pengwu@hku.hk%2,                Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,                Yuki%Furuse%NULL%1,                Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,                Feng%Liu%NULL%0,                Haibo%Wang%NULL%1,                Ruifeng%Yang%NULL%1,                Dongbo%Chen%NULL%1,                Xiaoxiao%Wang%NULL%1,                Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,                Huiying%Rao%raohuiying@pkuph.edu.cn%1,                Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,                Shu-Man%Shih%NULL%1,                Li-Hsin%Chien%NULL%1,                Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,                Heeyoung%Lee%NULL%1,                Kyoung-Ho%Song%NULL%0,                Eu Suk%Kim%NULL%2,                Eu Suk%Kim%NULL%0,                Jeong Su%Park%NULL%1,                Jongtak%Jung%NULL%1,                Soyeon%Ahn%NULL%1,                Eun Kyeong%Jeong%NULL%1,                Hyekyung%Park%NULL%1,                Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,                Hye%Seong%NULL%0,                Hye%Seong%NULL%0,                Jin Gu%Yoon%NULL%0,                Jin Gu%Yoon%NULL%0,                Joon Young%Song%NULL%0,                Joon Young%Song%NULL%0,                Hee Jin%Cheong%NULL%0,                Hee Jin%Cheong%NULL%0,                Woo Joo%Kim%NULL%0,                Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,                Jianyun%Lu%NULL%1,                Yanhui%Liu%NULL%1,                Zhoubin%Zhang%NULL%1,                Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,                Tun-Chieh%Chen%NULL%2,                Tun-Chieh%Chen%NULL%0,                Shin-Huei%Kuo%NULL%1,                Min-Han%Hsieh%NULL%1,                Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,                 X.% Peng%null%1,                 A.% Rebaza%null%1,                 S.% Bermejo%null%1,                 D.% Chang%null%1,                 L.% Sharma%null%1,                 C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,                 Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,                 Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,                 Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,                 Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,                 Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,                Chan%Ka%coreGivesNoEmail%1,                Ho%Pak-Leung%coreGivesNoEmail%1,                Lam%Kin Bong Hubert%coreGivesNoEmail%1,                Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,                 Fu-Wen%Liang%NULL%1,                 Hung-Jen%Tang%NULL%1,                 Han Siong%Toh%NULL%1,                 Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,                 Jong-Koo%Lee%NULL%2,                 Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,                 Nuria%Mora%NULL%1,                 Albert%Prats-Uribe%NULL%1,                 Francesc%Fina Avilés%NULL%2,                 Francesc%Fina Avilés%NULL%0,                 Daniel%Prieto-Alhambra%NULL%1,                 Manuel%Medina%NULL%2,                 Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,                 Sheikh Taslim%Ali%NULL%2,                 Tiffany W Y%Ng%NULL%2,                 Tim K%Tsang%NULL%2,                 Julian C M%Li%NULL%2,                 Min Whui%Fong%NULL%2,                 Qiuyan%Liao%NULL%2,                 Mike YW%Kwan%NULL%2,                 So Lun%Lee%NULL%2,                 Susan S%Chiu%NULL%2,                 Joseph T%Wu%NULL%2,                 Peng%Wu%pengwu@hku.hk%2,                 Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,                 Yuki%Furuse%NULL%1,                 Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,                 Feng%Liu%NULL%0,                 Haibo%Wang%NULL%1,                 Ruifeng%Yang%NULL%1,                 Dongbo%Chen%NULL%1,                 Xiaoxiao%Wang%NULL%1,                 Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,                 Huiying%Rao%raohuiying@pkuph.edu.cn%1,                 Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,                 Shu-Man%Shih%NULL%1,                 Li-Hsin%Chien%NULL%1,                 Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,                 Heeyoung%Lee%NULL%1,                 Kyoung-Ho%Song%NULL%0,                 Eu Suk%Kim%NULL%2,                 Eu Suk%Kim%NULL%0,                 Jeong Su%Park%NULL%1,                 Jongtak%Jung%NULL%1,                 Soyeon%Ahn%NULL%1,                 Eun Kyeong%Jeong%NULL%1,                 Hyekyung%Park%NULL%1,                 Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,                 Hye%Seong%NULL%0,                 Hye%Seong%NULL%0,                 Jin Gu%Yoon%NULL%0,                 Jin Gu%Yoon%NULL%0,                 Joon Young%Song%NULL%0,                 Joon Young%Song%NULL%0,                 Hee Jin%Cheong%NULL%0,                 Hee Jin%Cheong%NULL%0,                 Woo Joo%Kim%NULL%0,                 Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,                 Jianyun%Lu%NULL%1,                 Yanhui%Liu%NULL%1,                 Zhoubin%Zhang%NULL%1,                 Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,                 Tun-Chieh%Chen%NULL%2,                 Tun-Chieh%Chen%NULL%0,                 Shin-Huei%Kuo%NULL%1,                 Min-Han%Hsieh%NULL%1,                 Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,                  X.% Peng%null%1,                  A.% Rebaza%null%1,                  S.% Bermejo%null%1,                  D.% Chang%null%1,                  L.% Sharma%null%1,                  C. % Dela Cruz%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1404,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1349,7 +1433,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1378,7 +1462,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1407,7 +1491,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1436,7 +1520,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1465,7 +1549,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1494,7 +1578,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1523,7 +1607,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1552,7 +1636,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1581,7 +1665,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -1610,7 +1694,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1639,7 +1723,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1668,7 +1752,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1697,7 +1781,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>

--- a/Covid_19_Dataset_and_References/References/86.xlsx
+++ b/Covid_19_Dataset_and_References/References/86.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="335">
   <si>
     <t>Doi</t>
   </si>
@@ -1062,6 +1062,48 @@
   </si>
   <si>
     <t>[ G. M.%Young%null%1,                  X.% Peng%null%1,                  A.% Rebaza%null%1,                  S.% Bermejo%null%1,                  D.% Chang%null%1,                  L.% Sharma%null%1,                  C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,                  Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,                  Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,                  Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,                  Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,                  Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,                 Chan%Ka%coreGivesNoEmail%1,                 Ho%Pak-Leung%coreGivesNoEmail%1,                 Lam%Kin Bong Hubert%coreGivesNoEmail%1,                 Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,                  Fu-Wen%Liang%NULL%1,                  Hung-Jen%Tang%NULL%1,                  Han Siong%Toh%NULL%1,                  Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,                  Jong-Koo%Lee%NULL%2,                  Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,                  Nuria%Mora%NULL%1,                  Albert%Prats-Uribe%NULL%1,                  Francesc%Fina Avilés%NULL%2,                  Francesc%Fina Avilés%NULL%0,                  Daniel%Prieto-Alhambra%NULL%1,                  Manuel%Medina%NULL%2,                  Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,                  Sheikh Taslim%Ali%NULL%2,                  Tiffany W Y%Ng%NULL%2,                  Tim K%Tsang%NULL%2,                  Julian C M%Li%NULL%2,                  Min Whui%Fong%NULL%2,                  Qiuyan%Liao%NULL%2,                  Mike YW%Kwan%NULL%2,                  So Lun%Lee%NULL%2,                  Susan S%Chiu%NULL%2,                  Joseph T%Wu%NULL%2,                  Peng%Wu%pengwu@hku.hk%2,                  Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,                  Yuki%Furuse%NULL%1,                  Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,                  Feng%Liu%NULL%0,                  Haibo%Wang%NULL%1,                  Ruifeng%Yang%NULL%1,                  Dongbo%Chen%NULL%1,                  Xiaoxiao%Wang%NULL%1,                  Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,                  Huiying%Rao%raohuiying@pkuph.edu.cn%1,                  Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,                  Shu-Man%Shih%NULL%1,                  Li-Hsin%Chien%NULL%1,                  Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,                  Heeyoung%Lee%NULL%1,                  Kyoung-Ho%Song%NULL%0,                  Eu Suk%Kim%NULL%2,                  Eu Suk%Kim%NULL%0,                  Jeong Su%Park%NULL%1,                  Jongtak%Jung%NULL%1,                  Soyeon%Ahn%NULL%1,                  Eun Kyeong%Jeong%NULL%1,                  Hyekyung%Park%NULL%1,                  Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,                  Hye%Seong%NULL%0,                  Hye%Seong%NULL%0,                  Jin Gu%Yoon%NULL%0,                  Jin Gu%Yoon%NULL%0,                  Joon Young%Song%NULL%0,                  Joon Young%Song%NULL%0,                  Hee Jin%Cheong%NULL%0,                  Hee Jin%Cheong%NULL%0,                  Woo Joo%Kim%NULL%0,                  Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,                  Jianyun%Lu%NULL%1,                  Yanhui%Liu%NULL%1,                  Zhoubin%Zhang%NULL%1,                  Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,                  Tun-Chieh%Chen%NULL%2,                  Tun-Chieh%Chen%NULL%0,                  Shin-Huei%Kuo%NULL%1,                  Min-Han%Hsieh%NULL%1,                  Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,                   X.% Peng%null%1,                   A.% Rebaza%null%1,                   S.% Bermejo%null%1,                   D.% Chang%null%1,                   L.% Sharma%null%1,                   C. % Dela Cruz%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1446,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1433,7 +1475,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1462,7 +1504,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1491,7 +1533,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1520,7 +1562,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1549,7 +1591,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1578,7 +1620,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1607,7 +1649,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1636,7 +1678,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1665,7 +1707,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -1694,7 +1736,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1723,7 +1765,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1752,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1781,7 +1823,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>

--- a/Covid_19_Dataset_and_References/References/86.xlsx
+++ b/Covid_19_Dataset_and_References/References/86.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="353">
   <si>
     <t>Doi</t>
   </si>
@@ -1104,6 +1104,60 @@
   </si>
   <si>
     <t>[ G. M.%Young%null%1,                   X.% Peng%null%1,                   A.% Rebaza%null%1,                   S.% Bermejo%null%1,                   D.% Chang%null%1,                   L.% Sharma%null%1,                   C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,                   Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,                   Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,                   Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,                   Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,                   Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,                  Chan%Ka%coreGivesNoEmail%1,                  Ho%Pak-Leung%coreGivesNoEmail%1,                  Lam%Kin Bong Hubert%coreGivesNoEmail%1,                  Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,                   Fu-Wen%Liang%NULL%1,                   Hung-Jen%Tang%NULL%1,                   Han Siong%Toh%NULL%1,                   Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,                   Jong-Koo%Lee%NULL%2,                   Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,                   Nuria%Mora%NULL%1,                   Albert%Prats-Uribe%NULL%1,                   Francesc%Fina Avilés%NULL%2,                   Francesc%Fina Avilés%NULL%0,                   Daniel%Prieto-Alhambra%NULL%1,                   Manuel%Medina%NULL%2,                   Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,                   Sheikh Taslim%Ali%NULL%2,                   Tiffany W Y%Ng%NULL%2,                   Tim K%Tsang%NULL%2,                   Julian C M%Li%NULL%2,                   Min Whui%Fong%NULL%2,                   Qiuyan%Liao%NULL%2,                   Mike YW%Kwan%NULL%2,                   So Lun%Lee%NULL%2,                   Susan S%Chiu%NULL%2,                   Joseph T%Wu%NULL%2,                   Peng%Wu%pengwu@hku.hk%2,                   Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,                   Yuki%Furuse%NULL%1,                   Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,                   Feng%Liu%NULL%0,                   Haibo%Wang%NULL%1,                   Ruifeng%Yang%NULL%1,                   Dongbo%Chen%NULL%1,                   Xiaoxiao%Wang%NULL%1,                   Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,                   Huiying%Rao%raohuiying@pkuph.edu.cn%1,                   Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,                   Shu-Man%Shih%NULL%1,                   Li-Hsin%Chien%NULL%1,                   Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,                   Heeyoung%Lee%NULL%1,                   Kyoung-Ho%Song%NULL%0,                   Eu Suk%Kim%NULL%2,                   Eu Suk%Kim%NULL%0,                   Jeong Su%Park%NULL%1,                   Jongtak%Jung%NULL%1,                   Soyeon%Ahn%NULL%1,                   Eun Kyeong%Jeong%NULL%1,                   Hyekyung%Park%NULL%1,                   Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,                   Hye%Seong%NULL%0,                   Hye%Seong%NULL%0,                   Jin Gu%Yoon%NULL%0,                   Jin Gu%Yoon%NULL%0,                   Joon Young%Song%NULL%0,                   Joon Young%Song%NULL%0,                   Hee Jin%Cheong%NULL%0,                   Hee Jin%Cheong%NULL%0,                   Woo Joo%Kim%NULL%0,                   Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,                   Jianyun%Lu%NULL%1,                   Yanhui%Liu%NULL%1,                   Zhoubin%Zhang%NULL%1,                   Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,                   Tun-Chieh%Chen%NULL%2,                   Tun-Chieh%Chen%NULL%0,                   Shin-Huei%Kuo%NULL%1,                   Min-Han%Hsieh%NULL%1,                   Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,                    X.% Peng%null%1,                    A.% Rebaza%null%1,                    S.% Bermejo%null%1,                    D.% Chang%null%1,                    L.% Sharma%null%1,                    C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1500,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1458,7 +1512,7 @@
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1529,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1487,7 +1541,7 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4">
@@ -1504,7 +1558,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1516,7 +1570,7 @@
         <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>125</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5">
@@ -1533,7 +1587,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1545,7 +1599,7 @@
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6">
@@ -1562,7 +1616,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1574,7 +1628,7 @@
         <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7">
@@ -1591,7 +1645,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1603,7 +1657,7 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>125</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8">
@@ -1620,7 +1674,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1632,7 +1686,7 @@
         <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>125</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9">
@@ -1649,7 +1703,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1661,7 +1715,7 @@
         <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>125</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10">
@@ -1678,7 +1732,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1690,7 +1744,7 @@
         <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11">
@@ -1707,7 +1761,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -1719,7 +1773,7 @@
         <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12">
@@ -1736,7 +1790,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1748,7 +1802,7 @@
         <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13">
@@ -1765,7 +1819,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1777,7 +1831,7 @@
         <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14">
@@ -1794,7 +1848,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1806,7 +1860,7 @@
         <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15">
@@ -1823,7 +1877,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -1835,7 +1889,7 @@
         <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/86.xlsx
+++ b/Covid_19_Dataset_and_References/References/86.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="367">
   <si>
     <t>Doi</t>
   </si>
@@ -1158,6 +1158,48 @@
   </si>
   <si>
     <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,                    Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,                    Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,                    Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,                    Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,                    Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,                   Chan%Ka%coreGivesNoEmail%1,                   Ho%Pak-Leung%coreGivesNoEmail%1,                   Lam%Kin Bong Hubert%coreGivesNoEmail%1,                   Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,                    Fu-Wen%Liang%NULL%1,                    Hung-Jen%Tang%NULL%1,                    Han Siong%Toh%NULL%1,                    Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,                    Jong-Koo%Lee%NULL%2,                    Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,                    Nuria%Mora%NULL%1,                    Albert%Prats-Uribe%NULL%1,                    Francesc%Fina Avilés%NULL%2,                    Francesc%Fina Avilés%NULL%0,                    Daniel%Prieto-Alhambra%NULL%1,                    Manuel%Medina%NULL%2,                    Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,                    Sheikh Taslim%Ali%NULL%2,                    Tiffany W Y%Ng%NULL%2,                    Tim K%Tsang%NULL%2,                    Julian C M%Li%NULL%2,                    Min Whui%Fong%NULL%2,                    Qiuyan%Liao%NULL%2,                    Mike YW%Kwan%NULL%2,                    So Lun%Lee%NULL%2,                    Susan S%Chiu%NULL%2,                    Joseph T%Wu%NULL%2,                    Peng%Wu%pengwu@hku.hk%2,                    Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,                    Yuki%Furuse%NULL%1,                    Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,                    Feng%Liu%NULL%0,                    Haibo%Wang%NULL%1,                    Ruifeng%Yang%NULL%1,                    Dongbo%Chen%NULL%1,                    Xiaoxiao%Wang%NULL%1,                    Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,                    Huiying%Rao%raohuiying@pkuph.edu.cn%1,                    Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,                    Shu-Man%Shih%NULL%1,                    Li-Hsin%Chien%NULL%1,                    Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,                    Heeyoung%Lee%NULL%1,                    Kyoung-Ho%Song%NULL%0,                    Eu Suk%Kim%NULL%2,                    Eu Suk%Kim%NULL%0,                    Jeong Su%Park%NULL%1,                    Jongtak%Jung%NULL%1,                    Soyeon%Ahn%NULL%1,                    Eun Kyeong%Jeong%NULL%1,                    Hyekyung%Park%NULL%1,                    Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,                    Hye%Seong%NULL%0,                    Hye%Seong%NULL%0,                    Jin Gu%Yoon%NULL%0,                    Jin Gu%Yoon%NULL%0,                    Joon Young%Song%NULL%0,                    Joon Young%Song%NULL%0,                    Hee Jin%Cheong%NULL%0,                    Hee Jin%Cheong%NULL%0,                    Woo Joo%Kim%NULL%0,                    Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,                    Jianyun%Lu%NULL%1,                    Yanhui%Liu%NULL%1,                    Zhoubin%Zhang%NULL%1,                    Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,                    Tun-Chieh%Chen%NULL%2,                    Tun-Chieh%Chen%NULL%0,                    Shin-Huei%Kuo%NULL%1,                    Min-Han%Hsieh%NULL%1,                    Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%2,                     X.% Peng%null%1,                     A.% Rebaza%null%1,                     S.% Bermejo%null%1,                     D.% Chang%null%1,                     L.% Sharma%null%1,                     C. % Dela Cruz%null%1,  G. M.%Young%null%0,  X.% Peng%null%1,  A.% Rebaza%null%1,  S.% Bermejo%null%1,  D.% Chang%null%1,  L.% Sharma%null%1,  C. % Dela Cruz%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1542,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1529,7 +1571,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1558,7 +1600,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1587,7 +1629,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1616,7 +1658,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1645,7 +1687,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1674,7 +1716,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1703,7 +1745,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1732,7 +1774,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1761,7 +1803,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -1790,7 +1832,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1819,7 +1861,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1848,7 +1890,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1877,7 +1919,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>

--- a/Covid_19_Dataset_and_References/References/86.xlsx
+++ b/Covid_19_Dataset_and_References/References/86.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="438">
   <si>
     <t>Doi</t>
   </si>
@@ -1200,6 +1200,219 @@
   </si>
   <si>
     <t>[ G. M.%Young%null%2,                     X.% Peng%null%1,                     A.% Rebaza%null%1,                     S.% Bermejo%null%1,                     D.% Chang%null%1,                     L.% Sharma%null%1,                     C. % Dela Cruz%null%1,  G. M.%Young%null%0,  X.% Peng%null%1,  A.% Rebaza%null%1,  S.% Bermejo%null%1,  D.% Chang%null%1,  L.% Sharma%null%1,  C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,                     Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,                     Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,                     Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,                     Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,                     Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,                    Chan%Ka%coreGivesNoEmail%1,                    Ho%Pak-Leung%coreGivesNoEmail%1,                    Lam%Kin Bong Hubert%coreGivesNoEmail%1,                    Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,                     Fu-Wen%Liang%NULL%1,                     Hung-Jen%Tang%NULL%1,                     Han Siong%Toh%NULL%1,                     Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,                     Jong-Koo%Lee%NULL%2,                     Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,                     Nuria%Mora%NULL%1,                     Albert%Prats-Uribe%NULL%1,                     Francesc%Fina Avilés%NULL%2,                     Francesc%Fina Avilés%NULL%0,                     Daniel%Prieto-Alhambra%NULL%1,                     Manuel%Medina%NULL%2,                     Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,                     Sheikh Taslim%Ali%NULL%2,                     Tiffany W Y%Ng%NULL%2,                     Tim K%Tsang%NULL%2,                     Julian C M%Li%NULL%2,                     Min Whui%Fong%NULL%2,                     Qiuyan%Liao%NULL%2,                     Mike YW%Kwan%NULL%2,                     So Lun%Lee%NULL%2,                     Susan S%Chiu%NULL%2,                     Joseph T%Wu%NULL%2,                     Peng%Wu%pengwu@hku.hk%2,                     Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,                     Yuki%Furuse%NULL%1,                     Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,                     Feng%Liu%NULL%0,                     Haibo%Wang%NULL%1,                     Ruifeng%Yang%NULL%1,                     Dongbo%Chen%NULL%1,                     Xiaoxiao%Wang%NULL%1,                     Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,                     Huiying%Rao%raohuiying@pkuph.edu.cn%1,                     Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,                     Shu-Man%Shih%NULL%1,                     Li-Hsin%Chien%NULL%1,                     Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,                     Heeyoung%Lee%NULL%1,                     Kyoung-Ho%Song%NULL%0,                     Eu Suk%Kim%NULL%2,                     Eu Suk%Kim%NULL%0,                     Jeong Su%Park%NULL%1,                     Jongtak%Jung%NULL%1,                     Soyeon%Ahn%NULL%1,                     Eun Kyeong%Jeong%NULL%1,                     Hyekyung%Park%NULL%1,                     Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,                     Hye%Seong%NULL%0,                     Hye%Seong%NULL%0,                     Jin Gu%Yoon%NULL%0,                     Jin Gu%Yoon%NULL%0,                     Joon Young%Song%NULL%0,                     Joon Young%Song%NULL%0,                     Hee Jin%Cheong%NULL%0,                     Hee Jin%Cheong%NULL%0,                     Woo Joo%Kim%NULL%0,                     Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%4,                     Jianyun%Lu%NULL%1,                     Yanhui%Liu%NULL%1,                     Zhoubin%Zhang%NULL%1,                     Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,                     Tun-Chieh%Chen%NULL%2,                     Tun-Chieh%Chen%NULL%0,                     Shin-Huei%Kuo%NULL%1,                     Min-Han%Hsieh%NULL%1,                     Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,                      X.% Peng%null%1,                      A.% Rebaza%null%1,                      S.% Bermejo%null%1,                      D.% Chang%null%1,                      L.% Sharma%null%1,                      C. % Dela Cruz%null%1,   G. M.%Young%null%1,   X.% Peng%null%1,   A.% Rebaza%null%1,   S.% Bermejo%null%1,   D.% Chang%null%1,   L.% Sharma%null%1,   C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,                      Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,                      Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,                      Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,                      Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,                      Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,                     Chan%Ka%coreGivesNoEmail%1,                     Ho%Pak-Leung%coreGivesNoEmail%1,                     Lam%Kin Bong Hubert%coreGivesNoEmail%1,                     Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,                      Fu-Wen%Liang%NULL%1,                      Hung-Jen%Tang%NULL%1,                      Han Siong%Toh%NULL%1,                      Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,                      Jong-Koo%Lee%NULL%2,                      Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,                      Nuria%Mora%NULL%1,                      Albert%Prats-Uribe%NULL%1,                      Francesc%Fina Avilés%NULL%2,                      Francesc%Fina Avilés%NULL%0,                      Daniel%Prieto-Alhambra%NULL%1,                      Manuel%Medina%NULL%2,                      Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,                      Sheikh Taslim%Ali%NULL%2,                      Tiffany W Y%Ng%NULL%2,                      Tim K%Tsang%NULL%2,                      Julian C M%Li%NULL%2,                      Min Whui%Fong%NULL%2,                      Qiuyan%Liao%NULL%2,                      Mike YW%Kwan%NULL%2,                      So Lun%Lee%NULL%2,                      Susan S%Chiu%NULL%2,                      Joseph T%Wu%NULL%2,                      Peng%Wu%pengwu@hku.hk%2,                      Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,                      Yuki%Furuse%NULL%1,                      Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,                      Feng%Liu%NULL%0,                      Haibo%Wang%NULL%1,                      Ruifeng%Yang%NULL%1,                      Dongbo%Chen%NULL%1,                      Xiaoxiao%Wang%NULL%1,                      Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,                      Huiying%Rao%raohuiying@pkuph.edu.cn%1,                      Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,                      Shu-Man%Shih%NULL%1,                      Li-Hsin%Chien%NULL%1,                      Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,                      Heeyoung%Lee%NULL%1,                      Kyoung-Ho%Song%NULL%0,                      Eu Suk%Kim%NULL%2,                      Eu Suk%Kim%NULL%0,                      Jeong Su%Park%NULL%1,                      Jongtak%Jung%NULL%1,                      Soyeon%Ahn%NULL%1,                      Eun Kyeong%Jeong%NULL%1,                      Hyekyung%Park%NULL%1,                      Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,                      Hye%Seong%NULL%0,                      Hye%Seong%NULL%0,                      Jin Gu%Yoon%NULL%0,                      Jin Gu%Yoon%NULL%0,                      Joon Young%Song%NULL%0,                      Joon Young%Song%NULL%0,                      Hee Jin%Cheong%NULL%0,                      Hee Jin%Cheong%NULL%0,                      Woo Joo%Kim%NULL%0,                      Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,                      Jianyun%Lu%NULL%1,                      Yanhui%Liu%NULL%1,                      Zhoubin%Zhang%NULL%1,                      Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,                      Tun-Chieh%Chen%NULL%2,                      Tun-Chieh%Chen%NULL%0,                      Shin-Huei%Kuo%NULL%1,                      Min-Han%Hsieh%NULL%1,                      Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,                       X.% Peng%null%1,                       A.% Rebaza%null%1,                       S.% Bermejo%null%1,                       D.% Chang%null%1,                       L.% Sharma%null%1,                       C. % Dela Cruz%null%1,    G. M.%Young%null%1,    X.% Peng%null%1,    A.% Rebaza%null%1,    S.% Bermejo%null%1,    D.% Chang%null%1,    L.% Sharma%null%1,    C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,                       Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,                       Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,                       Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,                       Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,                       Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,                      Chan%Ka%coreGivesNoEmail%1,                      Ho%Pak-Leung%coreGivesNoEmail%1,                      Lam%Kin Bong Hubert%coreGivesNoEmail%1,                      Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,                       Fu-Wen%Liang%NULL%1,                       Hung-Jen%Tang%NULL%1,                       Han Siong%Toh%NULL%1,                       Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,                       Jong-Koo%Lee%NULL%2,                       Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,                       Nuria%Mora%NULL%1,                       Albert%Prats-Uribe%NULL%1,                       Francesc%Fina Avilés%NULL%2,                       Francesc%Fina Avilés%NULL%0,                       Daniel%Prieto-Alhambra%NULL%1,                       Manuel%Medina%NULL%2,                       Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,                       Sheikh Taslim%Ali%NULL%2,                       Tiffany W Y%Ng%NULL%2,                       Tim K%Tsang%NULL%2,                       Julian C M%Li%NULL%2,                       Min Whui%Fong%NULL%2,                       Qiuyan%Liao%NULL%2,                       Mike YW%Kwan%NULL%2,                       So Lun%Lee%NULL%2,                       Susan S%Chiu%NULL%2,                       Joseph T%Wu%NULL%2,                       Peng%Wu%pengwu@hku.hk%2,                       Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,                       Yuki%Furuse%NULL%1,                       Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,                       Feng%Liu%NULL%0,                       Haibo%Wang%NULL%1,                       Ruifeng%Yang%NULL%1,                       Dongbo%Chen%NULL%1,                       Xiaoxiao%Wang%NULL%1,                       Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,                       Huiying%Rao%raohuiying@pkuph.edu.cn%1,                       Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,                       Shu-Man%Shih%NULL%1,                       Li-Hsin%Chien%NULL%1,                       Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,                       Heeyoung%Lee%NULL%1,                       Kyoung-Ho%Song%NULL%0,                       Eu Suk%Kim%NULL%2,                       Eu Suk%Kim%NULL%0,                       Jeong Su%Park%NULL%1,                       Jongtak%Jung%NULL%1,                       Soyeon%Ahn%NULL%1,                       Eun Kyeong%Jeong%NULL%1,                       Hyekyung%Park%NULL%1,                       Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,                       Hye%Seong%NULL%0,                       Hye%Seong%NULL%0,                       Jin Gu%Yoon%NULL%0,                       Jin Gu%Yoon%NULL%0,                       Joon Young%Song%NULL%0,                       Joon Young%Song%NULL%0,                       Hee Jin%Cheong%NULL%0,                       Hee Jin%Cheong%NULL%0,                       Woo Joo%Kim%NULL%0,                       Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,                       Jianyun%Lu%NULL%1,                       Yanhui%Liu%NULL%1,                       Zhoubin%Zhang%NULL%1,                       Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,                       Tun-Chieh%Chen%NULL%2,                       Tun-Chieh%Chen%NULL%0,                       Shin-Huei%Kuo%NULL%1,                       Min-Han%Hsieh%NULL%1,                       Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,                        X.% Peng%null%1,                        A.% Rebaza%null%1,                        S.% Bermejo%null%1,                        D.% Chang%null%1,                        L.% Sharma%null%1,                        C. % Dela Cruz%null%1,     G. M.%Young%null%1,     X.% Peng%null%1,     A.% Rebaza%null%1,     S.% Bermejo%null%1,     D.% Chang%null%1,     L.% Sharma%null%1,     C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,                        Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,                        Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,                        Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,                        Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,                        Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,                       Chan%Ka%coreGivesNoEmail%1,                       Ho%Pak-Leung%coreGivesNoEmail%1,                       Lam%Kin Bong Hubert%coreGivesNoEmail%1,                       Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,                        Fu-Wen%Liang%NULL%1,                        Hung-Jen%Tang%NULL%1,                        Han Siong%Toh%NULL%1,                        Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,                        Jong-Koo%Lee%NULL%2,                        Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,                        Nuria%Mora%NULL%1,                        Albert%Prats-Uribe%NULL%1,                        Francesc%Fina Avilés%NULL%2,                        Francesc%Fina Avilés%NULL%0,                        Daniel%Prieto-Alhambra%NULL%1,                        Manuel%Medina%NULL%2,                        Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,                        Sheikh Taslim%Ali%NULL%2,                        Tiffany W Y%Ng%NULL%2,                        Tim K%Tsang%NULL%2,                        Julian C M%Li%NULL%2,                        Min Whui%Fong%NULL%2,                        Qiuyan%Liao%NULL%2,                        Mike YW%Kwan%NULL%2,                        So Lun%Lee%NULL%2,                        Susan S%Chiu%NULL%2,                        Joseph T%Wu%NULL%2,                        Peng%Wu%pengwu@hku.hk%2,                        Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,                        Yuki%Furuse%NULL%1,                        Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,                        Feng%Liu%NULL%0,                        Haibo%Wang%NULL%1,                        Ruifeng%Yang%NULL%1,                        Dongbo%Chen%NULL%1,                        Xiaoxiao%Wang%NULL%1,                        Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,                        Huiying%Rao%raohuiying@pkuph.edu.cn%1,                        Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,                        Shu-Man%Shih%NULL%1,                        Li-Hsin%Chien%NULL%1,                        Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,                        Heeyoung%Lee%NULL%1,                        Kyoung-Ho%Song%NULL%0,                        Eu Suk%Kim%NULL%2,                        Eu Suk%Kim%NULL%0,                        Jeong Su%Park%NULL%1,                        Jongtak%Jung%NULL%1,                        Soyeon%Ahn%NULL%1,                        Eun Kyeong%Jeong%NULL%1,                        Hyekyung%Park%NULL%1,                        Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,                        Hye%Seong%NULL%0,                        Hye%Seong%NULL%0,                        Jin Gu%Yoon%NULL%0,                        Jin Gu%Yoon%NULL%0,                        Joon Young%Song%NULL%0,                        Joon Young%Song%NULL%0,                        Hee Jin%Cheong%NULL%0,                        Hee Jin%Cheong%NULL%0,                        Woo Joo%Kim%NULL%0,                        Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,                        Jianyun%Lu%NULL%1,                        Yanhui%Liu%NULL%1,                        Zhoubin%Zhang%NULL%1,                        Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,                        Tun-Chieh%Chen%NULL%2,                        Tun-Chieh%Chen%NULL%0,                        Shin-Huei%Kuo%NULL%1,                        Min-Han%Hsieh%NULL%1,                        Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,                         X.% Peng%null%1,                         A.% Rebaza%null%1,                         S.% Bermejo%null%1,                         D.% Chang%null%1,                         L.% Sharma%null%1,                         C. % Dela Cruz%null%1,      G. M.%Young%null%1,      X.% Peng%null%1,      A.% Rebaza%null%1,      S.% Bermejo%null%1,      D.% Chang%null%1,      L.% Sharma%null%1,      C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,                         Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,                         Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,                         Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,                         Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,                         Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,                        Chan%Ka%coreGivesNoEmail%1,                        Ho%Pak-Leung%coreGivesNoEmail%1,                        Lam%Kin Bong Hubert%coreGivesNoEmail%1,                        Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,                         Fu-Wen%Liang%NULL%1,                         Hung-Jen%Tang%NULL%1,                         Han Siong%Toh%NULL%1,                         Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,                         Jong-Koo%Lee%NULL%2,                         Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,                         Nuria%Mora%NULL%1,                         Albert%Prats-Uribe%NULL%1,                         Francesc%Fina Avilés%NULL%2,                         Francesc%Fina Avilés%NULL%0,                         Daniel%Prieto-Alhambra%NULL%1,                         Manuel%Medina%NULL%2,                         Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,                         Sheikh Taslim%Ali%NULL%2,                         Tiffany W Y%Ng%NULL%2,                         Tim K%Tsang%NULL%2,                         Julian C M%Li%NULL%2,                         Min Whui%Fong%NULL%2,                         Qiuyan%Liao%NULL%2,                         Mike YW%Kwan%NULL%2,                         So Lun%Lee%NULL%2,                         Susan S%Chiu%NULL%2,                         Joseph T%Wu%NULL%2,                         Peng%Wu%pengwu@hku.hk%2,                         Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,                         Yuki%Furuse%NULL%1,                         Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,                         Feng%Liu%NULL%0,                         Haibo%Wang%NULL%1,                         Ruifeng%Yang%NULL%1,                         Dongbo%Chen%NULL%1,                         Xiaoxiao%Wang%NULL%1,                         Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,                         Huiying%Rao%raohuiying@pkuph.edu.cn%1,                         Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,                         Shu-Man%Shih%NULL%1,                         Li-Hsin%Chien%NULL%1,                         Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,                         Heeyoung%Lee%NULL%1,                         Kyoung-Ho%Song%NULL%0,                         Eu Suk%Kim%NULL%2,                         Eu Suk%Kim%NULL%0,                         Jeong Su%Park%NULL%1,                         Jongtak%Jung%NULL%1,                         Soyeon%Ahn%NULL%1,                         Eun Kyeong%Jeong%NULL%1,                         Hyekyung%Park%NULL%1,                         Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,                         Hye%Seong%NULL%0,                         Hye%Seong%NULL%0,                         Jin Gu%Yoon%NULL%0,                         Jin Gu%Yoon%NULL%0,                         Joon Young%Song%NULL%0,                         Joon Young%Song%NULL%0,                         Hee Jin%Cheong%NULL%0,                         Hee Jin%Cheong%NULL%0,                         Woo Joo%Kim%NULL%0,                         Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,                         Jianyun%Lu%NULL%1,                         Yanhui%Liu%NULL%1,                         Zhoubin%Zhang%NULL%1,                         Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,                         Tun-Chieh%Chen%NULL%2,                         Tun-Chieh%Chen%NULL%0,                         Shin-Huei%Kuo%NULL%1,                         Min-Han%Hsieh%NULL%1,                         Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,                          X.% Peng%null%1,                          A.% Rebaza%null%1,                          S.% Bermejo%null%1,                          D.% Chang%null%1,                          L.% Sharma%null%1,                          C. % Dela Cruz%null%1,       G. M.%Young%null%1,       X.% Peng%null%1,       A.% Rebaza%null%1,       S.% Bermejo%null%1,       D.% Chang%null%1,       L.% Sharma%null%1,       C. % Dela Cruz%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1527,6 +1740,9 @@
       <c r="I1" t="s">
         <v>120</v>
       </c>
+      <c r="J1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1542,7 +1758,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>424</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1555,6 +1771,9 @@
       </c>
       <c r="I2" t="s">
         <v>336</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -1571,7 +1790,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>354</v>
+        <v>425</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1584,6 +1803,9 @@
       </c>
       <c r="I3" t="s">
         <v>338</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -1600,7 +1822,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>355</v>
+        <v>426</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1613,6 +1835,9 @@
       </c>
       <c r="I4" t="s">
         <v>340</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1629,7 +1854,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>356</v>
+        <v>427</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1642,6 +1867,9 @@
       </c>
       <c r="I5" t="s">
         <v>336</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1658,7 +1886,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>357</v>
+        <v>428</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1671,6 +1899,9 @@
       </c>
       <c r="I6" t="s">
         <v>336</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1687,7 +1918,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>358</v>
+        <v>429</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1700,6 +1931,9 @@
       </c>
       <c r="I7" t="s">
         <v>340</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1716,7 +1950,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1729,6 +1963,9 @@
       </c>
       <c r="I8" t="s">
         <v>340</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1745,7 +1982,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>360</v>
+        <v>431</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1758,6 +1995,9 @@
       </c>
       <c r="I9" t="s">
         <v>340</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1774,7 +2014,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>361</v>
+        <v>432</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1787,6 +2027,9 @@
       </c>
       <c r="I10" t="s">
         <v>336</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -1803,7 +2046,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>362</v>
+        <v>433</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -1816,6 +2059,9 @@
       </c>
       <c r="I11" t="s">
         <v>336</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -1832,7 +2078,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>363</v>
+        <v>434</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1845,6 +2091,9 @@
       </c>
       <c r="I12" t="s">
         <v>336</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -1861,7 +2110,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>364</v>
+        <v>435</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1874,6 +2123,9 @@
       </c>
       <c r="I13" t="s">
         <v>340</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -1890,7 +2142,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>365</v>
+        <v>436</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -1903,6 +2155,9 @@
       </c>
       <c r="I14" t="s">
         <v>336</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -1919,7 +2174,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>366</v>
+        <v>437</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -1932,6 +2187,9 @@
       </c>
       <c r="I15" t="s">
         <v>352</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/86.xlsx
+++ b/Covid_19_Dataset_and_References/References/86.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="466">
   <si>
     <t>Doi</t>
   </si>
@@ -1413,6 +1413,90 @@
   </si>
   <si>
     <t>[ G. M.%Young%null%1,                          X.% Peng%null%1,                          A.% Rebaza%null%1,                          S.% Bermejo%null%1,                          D.% Chang%null%1,                          L.% Sharma%null%1,                          C. % Dela Cruz%null%1,       G. M.%Young%null%1,       X.% Peng%null%1,       A.% Rebaza%null%1,       S.% Bermejo%null%1,       D.% Chang%null%1,       L.% Sharma%null%1,       C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,                          Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,                          Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,                          Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,                          Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,                          Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,                         Chan%Ka%coreGivesNoEmail%1,                         Ho%Pak-Leung%coreGivesNoEmail%1,                         Lam%Kin Bong Hubert%coreGivesNoEmail%1,                         Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,                          Fu-Wen%Liang%NULL%1,                          Hung-Jen%Tang%NULL%1,                          Han Siong%Toh%NULL%1,                          Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,                          Jong-Koo%Lee%NULL%2,                          Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,                          Nuria%Mora%NULL%1,                          Albert%Prats-Uribe%NULL%1,                          Francesc%Fina Avilés%NULL%2,                          Francesc%Fina Avilés%NULL%0,                          Daniel%Prieto-Alhambra%NULL%1,                          Manuel%Medina%NULL%2,                          Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,                          Sheikh Taslim%Ali%NULL%2,                          Tiffany W Y%Ng%NULL%2,                          Tim K%Tsang%NULL%2,                          Julian C M%Li%NULL%2,                          Min Whui%Fong%NULL%2,                          Qiuyan%Liao%NULL%2,                          Mike YW%Kwan%NULL%2,                          So Lun%Lee%NULL%2,                          Susan S%Chiu%NULL%2,                          Joseph T%Wu%NULL%2,                          Peng%Wu%pengwu@hku.hk%2,                          Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,                          Yuki%Furuse%NULL%1,                          Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,                          Feng%Liu%NULL%0,                          Haibo%Wang%NULL%1,                          Ruifeng%Yang%NULL%1,                          Dongbo%Chen%NULL%1,                          Xiaoxiao%Wang%NULL%1,                          Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,                          Huiying%Rao%raohuiying@pkuph.edu.cn%1,                          Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,                          Shu-Man%Shih%NULL%1,                          Li-Hsin%Chien%NULL%1,                          Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,                          Heeyoung%Lee%NULL%1,                          Kyoung-Ho%Song%NULL%0,                          Eu Suk%Kim%NULL%2,                          Eu Suk%Kim%NULL%0,                          Jeong Su%Park%NULL%1,                          Jongtak%Jung%NULL%1,                          Soyeon%Ahn%NULL%1,                          Eun Kyeong%Jeong%NULL%1,                          Hyekyung%Park%NULL%1,                          Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,                          Hye%Seong%NULL%0,                          Hye%Seong%NULL%0,                          Jin Gu%Yoon%NULL%0,                          Jin Gu%Yoon%NULL%0,                          Joon Young%Song%NULL%0,                          Joon Young%Song%NULL%0,                          Hee Jin%Cheong%NULL%0,                          Hee Jin%Cheong%NULL%0,                          Woo Joo%Kim%NULL%0,                          Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,                          Jianyun%Lu%NULL%1,                          Yanhui%Liu%NULL%1,                          Zhoubin%Zhang%NULL%1,                          Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,                          Tun-Chieh%Chen%NULL%2,                          Tun-Chieh%Chen%NULL%0,                          Shin-Huei%Kuo%NULL%1,                          Min-Han%Hsieh%NULL%1,                          Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,                           X.% Peng%null%1,                           A.% Rebaza%null%1,                           S.% Bermejo%null%1,                           D.% Chang%null%1,                           L.% Sharma%null%1,                           C. % Dela Cruz%null%1,        G. M.%Young%null%1,        X.% Peng%null%1,        A.% Rebaza%null%1,        S.% Bermejo%null%1,        D.% Chang%null%1,        L.% Sharma%null%1,        C. % Dela Cruz%null%1]</t>
+  </si>
+  <si>
+    <t>[Chin Pok%CHAN%chinpok0301@gmail.com%1,                           Ngai Sze%WONG%candy_wong@cuhk.edu.hk%2,                           Ngai Sze%WONG%candy_wong@cuhk.edu.hk%0,                           Chi Chiu%LEUNG%ccleungpnc@netvigator.com%2,                           Chi Chiu%LEUNG%ccleungpnc@netvigator.com%0,                           Shui Shan%LEE%sslee@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chan%Crystal Ying%coreGivesNoEmail%1,                          Chan%Ka%coreGivesNoEmail%1,                          Ho%Pak-Leung%coreGivesNoEmail%1,                          Lam%Kin Bong Hubert%coreGivesNoEmail%1,                          Lee%Pak-Wing%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Khee-Siang%Chan%NULL%1,                           Fu-Wen%Liang%NULL%1,                           Hung-Jen%Tang%NULL%1,                           Han Siong%Toh%NULL%1,                           Wen-Liang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Young June%Choe%NULL%1,                           Jong-Koo%Lee%NULL%2,                           Jong-Koo%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ermengol%Coma Redon%NULL%1,                           Nuria%Mora%NULL%1,                           Albert%Prats-Uribe%NULL%1,                           Francesc%Fina Avilés%NULL%2,                           Francesc%Fina Avilés%NULL%0,                           Daniel%Prieto-Alhambra%NULL%1,                           Manuel%Medina%NULL%2,                           Manuel%Medina%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%2,                           Sheikh Taslim%Ali%NULL%2,                           Tiffany W Y%Ng%NULL%2,                           Tim K%Tsang%NULL%2,                           Julian C M%Li%NULL%2,                           Min Whui%Fong%NULL%2,                           Qiuyan%Liao%NULL%2,                           Mike YW%Kwan%NULL%2,                           So Lun%Lee%NULL%2,                           Susan S%Chiu%NULL%2,                           Joseph T%Wu%NULL%2,                           Peng%Wu%pengwu@hku.hk%2,                           Gabriel M%Leung%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Takahiro%Itaya%NULL%1,                           Yuki%Furuse%NULL%1,                           Kazuaki%Jindai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiangsha%Kong%NULL%1,                           Feng%Liu%NULL%0,                           Haibo%Wang%NULL%1,                           Ruifeng%Yang%NULL%1,                           Dongbo%Chen%NULL%1,                           Xiaoxiao%Wang%NULL%1,                           Fengmin%Lu%lu.fengmin@hsc.pku.edu.cn%1,                           Huiying%Rao%raohuiying@pkuph.edu.cn%1,                           Hongsong%Chen%chenhongsong@bjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shu-Chen%Kuo%NULL%1,                           Shu-Man%Shih%NULL%1,                           Li-Hsin%Chien%NULL%1,                           Chao A.%Hsiung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hyunju%Lee%NULL%1,                           Heeyoung%Lee%NULL%1,                           Kyoung-Ho%Song%NULL%0,                           Eu Suk%Kim%NULL%2,                           Eu Suk%Kim%NULL%0,                           Jeong Su%Park%NULL%1,                           Jongtak%Jung%NULL%1,                           Soyeon%Ahn%NULL%1,                           Eun Kyeong%Jeong%NULL%1,                           Hyekyung%Park%NULL%1,                           Hong Bin%Kim%hbkimmd@snu.ac.kr%0]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0,                           Hye%Seong%NULL%0,                           Hye%Seong%NULL%0,                           Jin Gu%Yoon%NULL%0,                           Jin Gu%Yoon%NULL%0,                           Joon Young%Song%NULL%0,                           Joon Young%Song%NULL%0,                           Hee Jin%Cheong%NULL%0,                           Hee Jin%Cheong%NULL%0,                           Woo Joo%Kim%NULL%0,                           Woo Joo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Di%Wu%NULL%1,                           Jianyun%Lu%NULL%1,                           Yanhui%Liu%NULL%1,                           Zhoubin%Zhang%NULL%1,                           Lei%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chih-Jen%Yang%NULL%1,                           Tun-Chieh%Chen%NULL%2,                           Tun-Chieh%Chen%NULL%0,                           Shin-Huei%Kuo%NULL%1,                           Min-Han%Hsieh%NULL%1,                           Yen-Hsu%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ G. M.%Young%null%1,                            X.% Peng%null%1,                            A.% Rebaza%null%1,                            S.% Bermejo%null%1,                            D.% Chang%null%1,                            L.% Sharma%null%1,                            C. % Dela Cruz%null%1,         G. M.%Young%null%1,         X.% Peng%null%1,         A.% Rebaza%null%1,         S.% Bermejo%null%1,         D.% Chang%null%1,         L.% Sharma%null%1,         C. % Dela Cruz%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1842,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1790,7 +1874,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1822,7 +1906,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1854,7 +1938,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1886,7 +1970,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1918,7 +2002,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1950,7 +2034,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1982,7 +2066,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -2014,7 +2098,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -2046,7 +2130,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -2078,7 +2162,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2110,7 +2194,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -2142,7 +2226,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -2174,7 +2258,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
